--- a/similarities/split_global/harmonic_similarity_timestamps_120.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:22.400000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:06.880000', '0:01:19')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb:7', 'Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:01:31.460000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G:min', 'D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:27.940000', '0:01:30.520000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:04.737522', '0:02:11.471309')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=87.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:7', 'Bb', 'F:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:48.250000', '0:00:52.010000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj', 'F:min'], ['F:min', 'C:maj', 'F:min', 'G:maj/B']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C', 'F:min'], ['F:min', 'C', 'F:min', 'G']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:20.500000'), ('0:00:15.920000', '0:00:20.760000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:04:05.350000', '0:04:09.930000'), ('0:00:03.400000', '0:00:09.080000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=15.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35', 'https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=3.4']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:01:42.160000', '0:01:53.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:38.900000', '0:00:47.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=102.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.540000', '0:00:07.840000'), ('0:01:15.720000', '0:01:26.060000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:26.580000'), ('0:00:19.360000', '0:00:25.140000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=0.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=20.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:01.540000', '0:00:04.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:48.800000', '0:01:00.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=48.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:7', 'C:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+          <t>('0:00:35.440000', '0:00:37.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:00:40.460000', '0:00:47.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=35.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=40.46</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:47.680000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
